--- a/data/trans_dic/P55$pareja-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$pareja-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,31; 77,86</t>
+          <t>9,59; 77,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,59</t>
+          <t>0,0; 49,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,79; 64,06</t>
+          <t>8,85; 63,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,85; 63,08</t>
+          <t>29,98; 63,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,77</t>
+          <t>0,0; 43,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,01; 35,64</t>
+          <t>6,99; 36,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 46,18</t>
+          <t>4,94; 45,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,03; 27,88</t>
+          <t>9,83; 28,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 51,24</t>
+          <t>9,19; 47,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 32,24</t>
+          <t>7,62; 30,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,72; 40,34</t>
+          <t>8,5; 42,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,55; 40,66</t>
+          <t>21,82; 40,26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,2; 69,5</t>
+          <t>18,18; 69,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,15; 78,79</t>
+          <t>31,11; 76,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,75</t>
+          <t>8,12; 54,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 56,96</t>
+          <t>16,54; 56,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,25</t>
+          <t>0,0; 29,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 25,53</t>
+          <t>4,86; 25,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 30,9</t>
+          <t>3,49; 30,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,74; 20,12</t>
+          <t>7,22; 21,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,81; 39,61</t>
+          <t>11,57; 37,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,85; 42,14</t>
+          <t>16,71; 41,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 28,77</t>
+          <t>6,65; 29,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 26,16</t>
+          <t>10,85; 25,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,9; 91,01</t>
+          <t>29,2; 91,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,86; 78,67</t>
+          <t>22,87; 78,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,81; 66,53</t>
+          <t>21,35; 65,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,24; 50,97</t>
+          <t>23,78; 51,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,64</t>
+          <t>0,0; 23,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,24; 71,09</t>
+          <t>17,92; 70,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 17,37</t>
+          <t>5,05; 17,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 28,36</t>
+          <t>6,2; 27,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 38,22</t>
+          <t>10,39; 37,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,11; 60,11</t>
+          <t>26,41; 60,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,75; 26,58</t>
+          <t>13,33; 27,11</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>50,76; 93,83</t>
+          <t>47,5; 93,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,57; 55,96</t>
+          <t>15,47; 56,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,75; 82,49</t>
+          <t>37,15; 82,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 51,77</t>
+          <t>18,11; 51,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 33,16</t>
+          <t>6,62; 33,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 29,85</t>
+          <t>7,36; 30,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 35,25</t>
+          <t>3,52; 33,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 17,39</t>
+          <t>4,48; 16,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,39; 49,71</t>
+          <t>22,11; 50,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,1; 34,31</t>
+          <t>11,65; 33,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,87; 45,06</t>
+          <t>17,74; 46,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,08; 24,46</t>
+          <t>10,77; 25,01</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,46; 90,04</t>
+          <t>29,23; 89,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 74,12</t>
+          <t>0,0; 62,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 83,7</t>
+          <t>0,0; 83,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,48; 44,47</t>
+          <t>5,51; 42,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,79</t>
+          <t>0,0; 32,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 44,12</t>
+          <t>8,54; 44,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,12</t>
+          <t>3,7; 36,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,36</t>
+          <t>0,0; 11,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 48,51</t>
+          <t>14,14; 50,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,8; 41,03</t>
+          <t>9,49; 38,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,18; 38,65</t>
+          <t>6,61; 37,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,01; 18,35</t>
+          <t>2,17; 18,67</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,15; 63,52</t>
+          <t>21,16; 63,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,37; 76,4</t>
+          <t>29,34; 71,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,52; 62,12</t>
+          <t>16,8; 65,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,24; 41,86</t>
+          <t>18,47; 43,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,55; 40,23</t>
+          <t>6,57; 35,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,94; 35,61</t>
+          <t>4,95; 37,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,97; 46,73</t>
+          <t>5,58; 50,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,73; 21,01</t>
+          <t>7,54; 22,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,39; 40,32</t>
+          <t>16,08; 42,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>19,11; 48,94</t>
+          <t>19,06; 48,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,95; 47,24</t>
+          <t>15,65; 46,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,76; 27,89</t>
+          <t>13,5; 27,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,48; 64,56</t>
+          <t>21,86; 64,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,17; 61,24</t>
+          <t>22,63; 62,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,2; 68,25</t>
+          <t>29,49; 68,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,16; 44,78</t>
+          <t>12,47; 46,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 20,61</t>
+          <t>2,15; 19,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,89; 30,94</t>
+          <t>6,35; 31,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,13; 36,64</t>
+          <t>13,23; 36,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,88; 23,42</t>
+          <t>8,6; 22,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,59; 29,2</t>
+          <t>10,56; 30,63</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>15,84; 36,88</t>
+          <t>16,34; 36,65</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>22,21; 42,83</t>
+          <t>21,74; 42,91</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,43; 25,99</t>
+          <t>12,03; 26,25</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,01; 57,53</t>
+          <t>25,05; 57,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,96; 52,63</t>
+          <t>9,25; 52,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,66; 68,46</t>
+          <t>31,37; 69,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34,75; 73,86</t>
+          <t>35,44; 73,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,16; 27,53</t>
+          <t>4,88; 26,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,82; 28,92</t>
+          <t>6,9; 30,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,86; 20,02</t>
+          <t>1,81; 19,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,59; 17,49</t>
+          <t>6,2; 18,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,62; 34,96</t>
+          <t>16,34; 36,12</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,82; 31,33</t>
+          <t>10,78; 30,09</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>11,72; 30,45</t>
+          <t>12,23; 31,33</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,78; 28,84</t>
+          <t>14,49; 27,76</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>39,28; 58,46</t>
+          <t>40,63; 56,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>30,9; 49,03</t>
+          <t>31,16; 49,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>36,68; 53,52</t>
+          <t>35,42; 52,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,26; 42,29</t>
+          <t>29,59; 41,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,31; 15,35</t>
+          <t>7,28; 15,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,36; 20,1</t>
+          <t>11,32; 19,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,79; 22,7</t>
+          <t>12,73; 22,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,66</t>
+          <t>9,68; 14,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,94; 28,91</t>
+          <t>20,12; 28,97</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>19,4; 28,1</t>
+          <t>19,88; 28,37</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>20,94; 30,71</t>
+          <t>21,5; 30,55</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17,14; 22,58</t>
+          <t>17,16; 22,62</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda su pareja cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2497</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12662</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5116</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4513</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5574</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4672</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7065</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18236</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>831; 6680</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5821</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>797; 5701</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8105; 17112</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4488</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1987; 10256</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1224; 11339</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3233; 9216</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1737; 9067</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3063; 12415</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2870; 14261</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13078; 24128</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6884</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12856</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3123</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5169</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2074</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5364</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4771</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7049</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8958</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18221</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7893</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12217</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2960; 11264</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7317; 17940</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1034; 6919</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2545; 8679</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6599</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2057; 10971</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1269; 11227</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3972; 12044</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4513; 14761</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11001; 27477</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3262; 14297</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7635; 18119</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6699</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6433</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9228</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7148</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4427</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6699</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>9256</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13582</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>13655</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3042; 9484</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3293; 11277</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3146; 9694</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6107; 13312</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1949</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6212</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3105; 12192</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2249; 7956</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2863; 12513</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4248; 15246</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8469; 19282</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9362; 19038</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>9998</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6345</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8789</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5394</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5699</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6153</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4256</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3338</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15698</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>12498</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>13045</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8732</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6360; 12581</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2980; 10794</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5186; 11575</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2997; 8571</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2113; 10810</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2906; 11903</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1034; 9724</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1609; 5925</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10017; 22806</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6840; 19662</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7688; 20081</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5651; 13121</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5226</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2201</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1691</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1847</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5483</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3395</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7072</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>7684</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5086</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1838</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2525; 7718</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5580</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4138</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>440; 3364</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5109</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2158; 11149</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>894; 8771</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1812</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3429; 12334</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3249; 13158</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1923; 10827</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>523; 4505</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7613</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9586</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5756</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7036</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4903</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3231</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5296</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4209</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>12516</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12817</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>11053</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>11245</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3802; 11486</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5305; 12864</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2509; 9774</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4467; 10447</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1837; 9959</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1053; 7874</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1305; 11879</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2380; 7182</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7382; 19405</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7501; 19191</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5999; 17786</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>7530; 15491</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>7966</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>12117</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>5798</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2877</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8170</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>12883</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>8058</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>10842</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>20287</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>25996</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>13856</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4090; 12023</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>6636; 18192</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7793; 17998</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2899; 10699</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>843; 7781</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3134; 15319</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>7450; 20802</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4594; 12251</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6110; 17732</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>12860; 28840</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>17988; 35511</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>9223; 20131</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>13653</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>5389</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>12145</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>9448</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>6395</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>7648</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3892</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>6438</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>20049</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>13037</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>16037</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>15887</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>8140; 18739</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1927; 10896</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>7761; 17300</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>6025; 12518</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2321; 12524</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>3235; 14109</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1010; 10741</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>3645; 10615</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>13078; 28916</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>7301; 20378</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>9837; 25194</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>10976; 21029</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>61584</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>57644</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>53547</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>56193</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>24923</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>43221</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>46155</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>39474</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>86507</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>100865</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>99702</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>95666</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>51428; 71659</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>45551; 71809</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>43026; 63764</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>46470; 65574</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>16804; 36065</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>31646; 55542</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>34048; 60975</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>31775; 48243</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>71914; 103582</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>84626; 120774</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>83602; 118789</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>83271; 109756</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>